--- a/BT3456/Bài tập 3.1.xlsx
+++ b/BT3456/Bài tập 3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C52414-7A9D-498B-8309-FDB8CA9E2EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0CC5A-4959-40E0-83E2-A677B3F81838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2064" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>HTML - disabled buttons</t>
   </si>
   <si>
-    <t>Tìm Flag</t>
-  </si>
-  <si>
     <t>Javascript - Authentication</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>MyP4sS</t>
+  </si>
+  <si>
+    <t>946a0b2d-c590-46f9-86fd-f7e76062779d</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -583,13 +583,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -598,16 +598,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -616,16 +616,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -634,16 +634,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -652,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -670,16 +670,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -688,16 +688,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -706,16 +706,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -724,16 +724,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -742,16 +742,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5"/>
     </row>
